--- a/team_specific_matrix/Nevada_B.xlsx
+++ b/team_specific_matrix/Nevada_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2068965517241379</v>
+        <v>0.2241992882562278</v>
       </c>
       <c r="C2">
-        <v>0.5270935960591133</v>
+        <v>0.4911032028469751</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01477832512315271</v>
+        <v>0.01423487544483986</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.004926108374384237</v>
+        <v>0.003558718861209964</v>
       </c>
       <c r="P2">
-        <v>0.1773399014778325</v>
+        <v>0.1637010676156584</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06896551724137931</v>
+        <v>0.103202846975089</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00909090909090909</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="C3">
-        <v>0.03636363636363636</v>
+        <v>0.02758620689655172</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06363636363636363</v>
+        <v>0.06206896551724138</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6818181818181818</v>
+        <v>0.6620689655172414</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2090909090909091</v>
+        <v>0.2413793103448276</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09523809523809523</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5714285714285714</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3103448275862069</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05063291139240506</v>
+        <v>0.04273504273504274</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006329113924050633</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="E6">
-        <v>0.006329113924050633</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="F6">
-        <v>0.06329113924050633</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2531645569620253</v>
+        <v>0.2905982905982906</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0379746835443038</v>
+        <v>0.02991452991452992</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.120253164556962</v>
+        <v>0.1196581196581197</v>
       </c>
       <c r="R6">
-        <v>0.05063291139240506</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="S6">
-        <v>0.4113924050632912</v>
+        <v>0.3803418803418803</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1265060240963855</v>
+        <v>0.1310043668122271</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01204819277108434</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07228915662650602</v>
+        <v>0.06550218340611354</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1144578313253012</v>
+        <v>0.1004366812227074</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006024096385542169</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1807228915662651</v>
+        <v>0.1921397379912664</v>
       </c>
       <c r="R7">
-        <v>0.07228915662650602</v>
+        <v>0.08296943231441048</v>
       </c>
       <c r="S7">
-        <v>0.4156626506024096</v>
+        <v>0.3973799126637554</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0975609756097561</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02134146341463415</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08536585365853659</v>
+        <v>0.08008658008658008</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1128048780487805</v>
+        <v>0.09956709956709957</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0274390243902439</v>
+        <v>0.03463203463203463</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1402439024390244</v>
+        <v>0.1471861471861472</v>
       </c>
       <c r="R8">
-        <v>0.1280487804878049</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="S8">
-        <v>0.3871951219512195</v>
+        <v>0.4069264069264069</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009523809523809525</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02857142857142857</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1142857142857143</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009523809523809525</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1619047619047619</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="R9">
-        <v>0.06666666666666667</v>
+        <v>0.06962025316455696</v>
       </c>
       <c r="S9">
-        <v>0.4095238095238095</v>
+        <v>0.4430379746835443</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08924205378973105</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01222493887530562</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.000925925925925926</v>
       </c>
       <c r="F10">
-        <v>0.07090464547677261</v>
+        <v>0.07314814814814814</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1246943765281174</v>
+        <v>0.1212962962962963</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0354523227383863</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1894865525672372</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="R10">
-        <v>0.09046454767726161</v>
+        <v>0.08981481481481482</v>
       </c>
       <c r="S10">
-        <v>0.3875305623471882</v>
+        <v>0.3851851851851852</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1518518518518518</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0962962962962963</v>
+        <v>0.09562841530054644</v>
       </c>
       <c r="K11">
-        <v>0.2222222222222222</v>
+        <v>0.2185792349726776</v>
       </c>
       <c r="L11">
-        <v>0.5185185185185185</v>
+        <v>0.5273224043715847</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01111111111111111</v>
+        <v>0.01092896174863388</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7172413793103448</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2344827586206897</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="L12">
-        <v>0.02758620689655172</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02068965517241379</v>
+        <v>0.01470588235294118</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.65</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.325</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.025</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02247191011235955</v>
+        <v>0.03187250996015936</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2134831460674157</v>
+        <v>0.1872509960159363</v>
       </c>
       <c r="I15">
-        <v>0.03932584269662921</v>
+        <v>0.04382470119521913</v>
       </c>
       <c r="J15">
-        <v>0.2640449438202247</v>
+        <v>0.2749003984063745</v>
       </c>
       <c r="K15">
-        <v>0.07303370786516854</v>
+        <v>0.06772908366533864</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01685393258426966</v>
+        <v>0.0199203187250996</v>
       </c>
       <c r="N15">
-        <v>0.005617977528089887</v>
+        <v>0.00398406374501992</v>
       </c>
       <c r="O15">
-        <v>0.06179775280898876</v>
+        <v>0.05577689243027888</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.303370786516854</v>
+        <v>0.3147410358565737</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01666666666666667</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.225</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
-        <v>0.06666666666666667</v>
+        <v>0.08387096774193549</v>
       </c>
       <c r="J16">
-        <v>0.35</v>
+        <v>0.3612903225806451</v>
       </c>
       <c r="K16">
-        <v>0.1333333333333333</v>
+        <v>0.1161290322580645</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04166666666666666</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04166666666666666</v>
+        <v>0.05806451612903226</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.125</v>
+        <v>0.1354838709677419</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01923076923076923</v>
+        <v>0.02785515320334262</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2</v>
+        <v>0.2089136490250696</v>
       </c>
       <c r="I17">
-        <v>0.07307692307692308</v>
+        <v>0.06963788300835655</v>
       </c>
       <c r="J17">
-        <v>0.3615384615384615</v>
+        <v>0.3342618384401114</v>
       </c>
       <c r="K17">
-        <v>0.1423076923076923</v>
+        <v>0.1587743732590529</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01153846153846154</v>
+        <v>0.01671309192200557</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08076923076923077</v>
+        <v>0.08077994428969359</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1115384615384615</v>
+        <v>0.1030640668523677</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02127659574468085</v>
+        <v>0.015625</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.198581560283688</v>
+        <v>0.2135416666666667</v>
       </c>
       <c r="I18">
-        <v>0.07092198581560284</v>
+        <v>0.09895833333333333</v>
       </c>
       <c r="J18">
         <v>0.3333333333333333</v>
       </c>
       <c r="K18">
-        <v>0.07801418439716312</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0425531914893617</v>
+        <v>0.03125</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07092198581560284</v>
+        <v>0.0625</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1843971631205674</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02061855670103093</v>
+        <v>0.02786885245901639</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2107674684994273</v>
+        <v>0.2213114754098361</v>
       </c>
       <c r="I19">
-        <v>0.07101947308132875</v>
+        <v>0.07377049180327869</v>
       </c>
       <c r="J19">
-        <v>0.3516609392898053</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="K19">
-        <v>0.1466208476517755</v>
+        <v>0.1385245901639344</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0274914089347079</v>
+        <v>0.02622950819672131</v>
       </c>
       <c r="N19">
-        <v>0.001145475372279496</v>
+        <v>0.000819672131147541</v>
       </c>
       <c r="O19">
-        <v>0.07445589919816724</v>
+        <v>0.07868852459016394</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09621993127147767</v>
+        <v>0.1049180327868852</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Nevada_B.xlsx
+++ b/team_specific_matrix/Nevada_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2241992882562278</v>
+        <v>0.2211221122112211</v>
       </c>
       <c r="C2">
-        <v>0.4911032028469751</v>
+        <v>0.5016501650165016</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01423487544483986</v>
+        <v>0.0132013201320132</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003558718861209964</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="P2">
-        <v>0.1637010676156584</v>
+        <v>0.1617161716171617</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.103202846975089</v>
+        <v>0.09900990099009901</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006896551724137931</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="C3">
-        <v>0.02758620689655172</v>
+        <v>0.03726708074534162</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06206896551724138</v>
+        <v>0.06211180124223602</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6620689655172414</v>
+        <v>0.6583850931677019</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2413793103448276</v>
+        <v>0.2360248447204969</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06896551724137931</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6206896551724138</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3103448275862069</v>
+        <v>0.2903225806451613</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04273504273504274</v>
+        <v>0.04296875</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004273504273504274</v>
+        <v>0.00390625</v>
       </c>
       <c r="E6">
-        <v>0.004273504273504274</v>
+        <v>0.00390625</v>
       </c>
       <c r="F6">
-        <v>0.07692307692307693</v>
+        <v>0.078125</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2905982905982906</v>
+        <v>0.2890625</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02991452991452992</v>
+        <v>0.03515625</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1196581196581197</v>
+        <v>0.12109375</v>
       </c>
       <c r="R6">
-        <v>0.05128205128205128</v>
+        <v>0.0546875</v>
       </c>
       <c r="S6">
-        <v>0.3803418803418803</v>
+        <v>0.37109375</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1310043668122271</v>
+        <v>0.1382113821138211</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01310043668122271</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06550218340611354</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1004366812227074</v>
+        <v>0.1016260162601626</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01746724890829694</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1921397379912664</v>
+        <v>0.1991869918699187</v>
       </c>
       <c r="R7">
-        <v>0.08296943231441048</v>
+        <v>0.08130081300813008</v>
       </c>
       <c r="S7">
-        <v>0.3973799126637554</v>
+        <v>0.3902439024390244</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09523809523809523</v>
+        <v>0.09611451942740286</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01731601731601732</v>
+        <v>0.016359918200409</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08008658008658008</v>
+        <v>0.08588957055214724</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09956709956709957</v>
+        <v>0.09406952965235174</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03463203463203463</v>
+        <v>0.03476482617586912</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1471861471861472</v>
+        <v>0.1513292433537832</v>
       </c>
       <c r="R8">
-        <v>0.119047619047619</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="S8">
-        <v>0.4069264069264069</v>
+        <v>0.4049079754601227</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1518987341772152</v>
+        <v>0.1468926553672316</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006329113924050633</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03164556962025317</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1139240506329114</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02531645569620253</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1582278481012658</v>
+        <v>0.1638418079096045</v>
       </c>
       <c r="R9">
-        <v>0.06962025316455696</v>
+        <v>0.07344632768361582</v>
       </c>
       <c r="S9">
-        <v>0.4430379746835443</v>
+        <v>0.4463276836158192</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09722222222222222</v>
+        <v>0.09809027777777778</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01388888888888889</v>
+        <v>0.01475694444444444</v>
       </c>
       <c r="E10">
-        <v>0.000925925925925926</v>
+        <v>0.0008680555555555555</v>
       </c>
       <c r="F10">
-        <v>0.07314814814814814</v>
+        <v>0.07465277777777778</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1212962962962963</v>
+        <v>0.1189236111111111</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03333333333333333</v>
+        <v>0.03298611111111111</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1851851851851852</v>
+        <v>0.1866319444444444</v>
       </c>
       <c r="R10">
-        <v>0.08981481481481482</v>
+        <v>0.08940972222222222</v>
       </c>
       <c r="S10">
-        <v>0.3851851851851852</v>
+        <v>0.3836805555555556</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1475409836065574</v>
+        <v>0.1454081632653061</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09562841530054644</v>
+        <v>0.09693877551020408</v>
       </c>
       <c r="K11">
-        <v>0.2185792349726776</v>
+        <v>0.2168367346938775</v>
       </c>
       <c r="L11">
-        <v>0.5273224043715847</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01092896174863388</v>
+        <v>0.01020408163265306</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7352941176470589</v>
+        <v>0.7442922374429224</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.196078431372549</v>
+        <v>0.1872146118721461</v>
       </c>
       <c r="K12">
-        <v>0.01470588235294118</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="L12">
-        <v>0.0392156862745098</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01470588235294118</v>
+        <v>0.0136986301369863</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03187250996015936</v>
+        <v>0.02962962962962963</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1872509960159363</v>
+        <v>0.1814814814814815</v>
       </c>
       <c r="I15">
-        <v>0.04382470119521913</v>
+        <v>0.04074074074074074</v>
       </c>
       <c r="J15">
-        <v>0.2749003984063745</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="K15">
-        <v>0.06772908366533864</v>
+        <v>0.07037037037037037</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0199203187250996</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N15">
-        <v>0.00398406374501992</v>
+        <v>0.003703703703703704</v>
       </c>
       <c r="O15">
-        <v>0.05577689243027888</v>
+        <v>0.05925925925925926</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3147410358565737</v>
+        <v>0.3185185185185185</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01290322580645161</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1345,25 +1345,25 @@
         <v>0.2</v>
       </c>
       <c r="I16">
-        <v>0.08387096774193549</v>
+        <v>0.07647058823529412</v>
       </c>
       <c r="J16">
-        <v>0.3612903225806451</v>
+        <v>0.3470588235294118</v>
       </c>
       <c r="K16">
-        <v>0.1161290322580645</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03225806451612903</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05806451612903226</v>
+        <v>0.06470588235294118</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1354838709677419</v>
+        <v>0.1294117647058824</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02785515320334262</v>
+        <v>0.02557544757033248</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2089136490250696</v>
+        <v>0.2046035805626598</v>
       </c>
       <c r="I17">
-        <v>0.06963788300835655</v>
+        <v>0.07672634271099744</v>
       </c>
       <c r="J17">
-        <v>0.3342618384401114</v>
+        <v>0.3350383631713555</v>
       </c>
       <c r="K17">
-        <v>0.1587743732590529</v>
+        <v>0.1585677749360614</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01671309192200557</v>
+        <v>0.01534526854219949</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002557544757033248</v>
       </c>
       <c r="O17">
-        <v>0.08077994428969359</v>
+        <v>0.07928388746803069</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1030640668523677</v>
+        <v>0.1023017902813299</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.015625</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2135416666666667</v>
+        <v>0.2097560975609756</v>
       </c>
       <c r="I18">
-        <v>0.09895833333333333</v>
+        <v>0.1024390243902439</v>
       </c>
       <c r="J18">
-        <v>0.3333333333333333</v>
+        <v>0.3365853658536586</v>
       </c>
       <c r="K18">
-        <v>0.08854166666666667</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03125</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0625</v>
+        <v>0.06341463414634146</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.15625</v>
+        <v>0.1463414634146341</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02786885245901639</v>
+        <v>0.02925327174749807</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2213114754098361</v>
+        <v>0.2193995381062356</v>
       </c>
       <c r="I19">
-        <v>0.07377049180327869</v>
+        <v>0.07852193995381063</v>
       </c>
       <c r="J19">
-        <v>0.3278688524590164</v>
+        <v>0.3302540415704388</v>
       </c>
       <c r="K19">
-        <v>0.1385245901639344</v>
+        <v>0.1339491916859122</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02622950819672131</v>
+        <v>0.02463433410315627</v>
       </c>
       <c r="N19">
-        <v>0.000819672131147541</v>
+        <v>0.0007698229407236335</v>
       </c>
       <c r="O19">
-        <v>0.07868852459016394</v>
+        <v>0.07775211701308699</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1049180327868852</v>
+        <v>0.1054657428791378</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Nevada_B.xlsx
+++ b/team_specific_matrix/Nevada_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2211221122112211</v>
+        <v>0.2242990654205607</v>
       </c>
       <c r="C2">
-        <v>0.5016501650165016</v>
+        <v>0.5015576323987538</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0132013201320132</v>
+        <v>0.01557632398753894</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0033003300330033</v>
+        <v>0.003115264797507788</v>
       </c>
       <c r="P2">
-        <v>0.1617161716171617</v>
+        <v>0.161993769470405</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09900990099009901</v>
+        <v>0.09345794392523364</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006211180124223602</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="C3">
-        <v>0.03726708074534162</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06211180124223602</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6583850931677019</v>
+        <v>0.6647058823529411</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2360248447204969</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04296875</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00390625</v>
+        <v>0.003759398496240601</v>
       </c>
       <c r="E6">
-        <v>0.00390625</v>
+        <v>0.003759398496240601</v>
       </c>
       <c r="F6">
-        <v>0.078125</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2890625</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03515625</v>
+        <v>0.03759398496240601</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.12109375</v>
+        <v>0.1203007518796992</v>
       </c>
       <c r="R6">
-        <v>0.0546875</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="S6">
-        <v>0.37109375</v>
+        <v>0.3646616541353384</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1382113821138211</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01219512195121951</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06097560975609756</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1016260162601626</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01626016260162602</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1991869918699187</v>
+        <v>0.2023809523809524</v>
       </c>
       <c r="R7">
-        <v>0.08130081300813008</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="S7">
-        <v>0.3902439024390244</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09611451942740286</v>
+        <v>0.1004016064257028</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.016359918200409</v>
+        <v>0.01606425702811245</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08588957055214724</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09406952965235174</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03476482617586912</v>
+        <v>0.03413654618473896</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1513292433537832</v>
+        <v>0.1526104417670683</v>
       </c>
       <c r="R8">
-        <v>0.1165644171779141</v>
+        <v>0.1164658634538153</v>
       </c>
       <c r="S8">
-        <v>0.4049079754601227</v>
+        <v>0.4036144578313253</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1468926553672316</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005649717514124294</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03389830508474576</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1016949152542373</v>
+        <v>0.1005291005291005</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02824858757062147</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1638418079096045</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="R9">
-        <v>0.07344632768361582</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="S9">
-        <v>0.4463276836158192</v>
+        <v>0.4497354497354497</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09809027777777778</v>
+        <v>0.0993322203672788</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01475694444444444</v>
+        <v>0.01419031719532554</v>
       </c>
       <c r="E10">
-        <v>0.0008680555555555555</v>
+        <v>0.0008347245409015025</v>
       </c>
       <c r="F10">
-        <v>0.07465277777777778</v>
+        <v>0.07512520868113523</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1189236111111111</v>
+        <v>0.1185308848080134</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03298611111111111</v>
+        <v>0.03171953255425709</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1866319444444444</v>
+        <v>0.1853088480801336</v>
       </c>
       <c r="R10">
-        <v>0.08940972222222222</v>
+        <v>0.08931552587646077</v>
       </c>
       <c r="S10">
-        <v>0.3836805555555556</v>
+        <v>0.3856427378964942</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1454081632653061</v>
+        <v>0.14004914004914</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09693877551020408</v>
+        <v>0.09828009828009827</v>
       </c>
       <c r="K11">
-        <v>0.2168367346938775</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="L11">
-        <v>0.5306122448979592</v>
+        <v>0.5356265356265356</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01020408163265306</v>
+        <v>0.009828009828009828</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7442922374429224</v>
+        <v>0.7379912663755459</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1872146118721461</v>
+        <v>0.1965065502183406</v>
       </c>
       <c r="K12">
-        <v>0.0136986301369863</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="L12">
-        <v>0.0410958904109589</v>
+        <v>0.03930131004366812</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0136986301369863</v>
+        <v>0.01310043668122271</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6296296296296297</v>
+        <v>0.625</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3148148148148148</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05555555555555555</v>
+        <v>0.05357142857142857</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02962962962962963</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1814814814814815</v>
+        <v>0.1821428571428571</v>
       </c>
       <c r="I15">
-        <v>0.04074074074074074</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="J15">
-        <v>0.2777777777777778</v>
+        <v>0.275</v>
       </c>
       <c r="K15">
-        <v>0.07037037037037037</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01851851851851852</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="N15">
-        <v>0.003703703703703704</v>
+        <v>0.003571428571428571</v>
       </c>
       <c r="O15">
-        <v>0.05925925925925926</v>
+        <v>0.06785714285714285</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3185185185185185</v>
+        <v>0.3107142857142857</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01176470588235294</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="I16">
-        <v>0.07647058823529412</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="J16">
-        <v>0.3470588235294118</v>
+        <v>0.35</v>
       </c>
       <c r="K16">
-        <v>0.1411764705882353</v>
+        <v>0.15</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02941176470588235</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06470588235294118</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1294117647058824</v>
+        <v>0.1222222222222222</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02557544757033248</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2046035805626598</v>
+        <v>0.198019801980198</v>
       </c>
       <c r="I17">
-        <v>0.07672634271099744</v>
+        <v>0.08168316831683169</v>
       </c>
       <c r="J17">
-        <v>0.3350383631713555</v>
+        <v>0.3391089108910891</v>
       </c>
       <c r="K17">
-        <v>0.1585677749360614</v>
+        <v>0.1633663366336634</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01534526854219949</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="N17">
-        <v>0.002557544757033248</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="O17">
-        <v>0.07928388746803069</v>
+        <v>0.07673267326732673</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1023017902813299</v>
+        <v>0.09900990099009901</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01463414634146342</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2097560975609756</v>
+        <v>0.2085308056872038</v>
       </c>
       <c r="I18">
-        <v>0.1024390243902439</v>
+        <v>0.1090047393364929</v>
       </c>
       <c r="J18">
-        <v>0.3365853658536586</v>
+        <v>0.3317535545023697</v>
       </c>
       <c r="K18">
-        <v>0.0975609756097561</v>
+        <v>0.0995260663507109</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02926829268292683</v>
+        <v>0.03317535545023697</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06341463414634146</v>
+        <v>0.06161137440758294</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1463414634146341</v>
+        <v>0.1421800947867299</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02925327174749807</v>
+        <v>0.02844311377245509</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2193995381062356</v>
+        <v>0.217814371257485</v>
       </c>
       <c r="I19">
-        <v>0.07852193995381063</v>
+        <v>0.08008982035928144</v>
       </c>
       <c r="J19">
-        <v>0.3302540415704388</v>
+        <v>0.3338323353293413</v>
       </c>
       <c r="K19">
-        <v>0.1339491916859122</v>
+        <v>0.1324850299401198</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02463433410315627</v>
+        <v>0.02470059880239521</v>
       </c>
       <c r="N19">
-        <v>0.0007698229407236335</v>
+        <v>0.0007485029940119761</v>
       </c>
       <c r="O19">
-        <v>0.07775211701308699</v>
+        <v>0.07934131736526946</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1054657428791378</v>
+        <v>0.1025449101796407</v>
       </c>
     </row>
   </sheetData>
